--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N2">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O2">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P2">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q2">
-        <v>1.813848121250068</v>
+        <v>2.2649188329</v>
       </c>
       <c r="R2">
-        <v>1.813848121250068</v>
+        <v>20.3842694961</v>
       </c>
       <c r="S2">
-        <v>0.0006897256194949259</v>
+        <v>0.0007256715837114225</v>
       </c>
       <c r="T2">
-        <v>0.0006897256194949259</v>
+        <v>0.0008105588775874075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N3">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P3">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q3">
-        <v>21.93397308902846</v>
+        <v>26.61623655786</v>
       </c>
       <c r="R3">
-        <v>21.93397308902846</v>
+        <v>239.54612902074</v>
       </c>
       <c r="S3">
-        <v>0.008340512636961563</v>
+        <v>0.008527743358754128</v>
       </c>
       <c r="T3">
-        <v>0.008340512636961563</v>
+        <v>0.009525298000333443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N4">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O4">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P4">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q4">
-        <v>39.8618720762474</v>
+        <v>57.67723808099999</v>
       </c>
       <c r="R4">
-        <v>39.8618720762474</v>
+        <v>519.0951427289999</v>
       </c>
       <c r="S4">
-        <v>0.01515769379470927</v>
+        <v>0.01847957290758595</v>
       </c>
       <c r="T4">
-        <v>0.01515769379470927</v>
+        <v>0.02064126832369412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N5">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O5">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P5">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q5">
-        <v>59.20923765288364</v>
+        <v>70.49047301729999</v>
       </c>
       <c r="R5">
-        <v>59.20923765288364</v>
+        <v>634.4142571556999</v>
       </c>
       <c r="S5">
-        <v>0.02251463484815511</v>
+        <v>0.0225848858016405</v>
       </c>
       <c r="T5">
-        <v>0.02251463484815511</v>
+        <v>0.02522681071813526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H6">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I6">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J6">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N6">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O6">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P6">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q6">
-        <v>19.25788562836539</v>
+        <v>22.53510243396</v>
       </c>
       <c r="R6">
-        <v>19.25788562836539</v>
+        <v>135.21061460376</v>
       </c>
       <c r="S6">
-        <v>0.007322915816144852</v>
+        <v>0.007220163139979904</v>
       </c>
       <c r="T6">
-        <v>0.007322915816144852</v>
+        <v>0.005376506822189317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N7">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O7">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P7">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q7">
-        <v>18.45136653687646</v>
+        <v>22.57972353523333</v>
       </c>
       <c r="R7">
-        <v>18.45136653687646</v>
+        <v>203.2175118171</v>
       </c>
       <c r="S7">
-        <v>0.007016232542338931</v>
+        <v>0.007234459575135821</v>
       </c>
       <c r="T7">
-        <v>0.007016232542338931</v>
+        <v>0.008080729030593377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J8">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N8">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P8">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q8">
-        <v>223.1232992080555</v>
+        <v>265.3460487391266</v>
       </c>
       <c r="R8">
-        <v>223.1232992080555</v>
+        <v>2388.11443865214</v>
       </c>
       <c r="S8">
-        <v>0.08484384881351985</v>
+        <v>0.08501588870341295</v>
       </c>
       <c r="T8">
-        <v>0.08484384881351985</v>
+        <v>0.09496084023587441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J9">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N9">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O9">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P9">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q9">
-        <v>405.4948172937573</v>
+        <v>575.0034267132221</v>
       </c>
       <c r="R9">
-        <v>405.4948172937573</v>
+        <v>5175.030840418999</v>
       </c>
       <c r="S9">
-        <v>0.1541916110744534</v>
+        <v>0.18422896275193</v>
       </c>
       <c r="T9">
-        <v>0.1541916110744534</v>
+        <v>0.2057796179692769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J10">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N10">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O10">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P10">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q10">
-        <v>602.305856539664</v>
+        <v>702.7427956702999</v>
       </c>
       <c r="R10">
-        <v>602.305856539664</v>
+        <v>6324.685161032699</v>
       </c>
       <c r="S10">
-        <v>0.2290300798398371</v>
+        <v>0.2251561822296767</v>
       </c>
       <c r="T10">
-        <v>0.2290300798398371</v>
+        <v>0.2514944038686903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J11">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N11">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O11">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P11">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q11">
-        <v>195.9008046436247</v>
+        <v>224.6598754028933</v>
       </c>
       <c r="R11">
-        <v>195.9008046436247</v>
+        <v>1347.95925241736</v>
       </c>
       <c r="S11">
-        <v>0.07449234710415442</v>
+        <v>0.07198018984692971</v>
       </c>
       <c r="T11">
-        <v>0.07449234710415442</v>
+        <v>0.05360017139108256</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H12">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I12">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J12">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N12">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O12">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P12">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q12">
-        <v>2.219588829448074</v>
+        <v>2.542237217131667</v>
       </c>
       <c r="R12">
-        <v>2.219588829448074</v>
+        <v>22.880134954185</v>
       </c>
       <c r="S12">
-        <v>0.0008440107319239159</v>
+        <v>0.0008145233642496309</v>
       </c>
       <c r="T12">
-        <v>0.0008440107319239159</v>
+        <v>0.0009098043229393546</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H13">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I13">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J13">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N13">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P13">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q13">
-        <v>26.84039588731932</v>
+        <v>29.87514880201433</v>
       </c>
       <c r="R13">
-        <v>26.84039588731932</v>
+        <v>268.876339218129</v>
       </c>
       <c r="S13">
-        <v>0.01020620660792257</v>
+        <v>0.009571886740424014</v>
       </c>
       <c r="T13">
-        <v>0.01020620660792257</v>
+        <v>0.01069158273089721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H14">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I14">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J14">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N14">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O14">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P14">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q14">
-        <v>48.77859669989913</v>
+        <v>64.73928297162776</v>
       </c>
       <c r="R14">
-        <v>48.77859669989913</v>
+        <v>582.6535467446498</v>
       </c>
       <c r="S14">
-        <v>0.0185483268597728</v>
+        <v>0.02074222586696875</v>
       </c>
       <c r="T14">
-        <v>0.0185483268597728</v>
+        <v>0.02316860091366154</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H15">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I15">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J15">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N15">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O15">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P15">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q15">
-        <v>72.4537853830367</v>
+        <v>79.12138013720499</v>
       </c>
       <c r="R15">
-        <v>72.4537853830367</v>
+        <v>712.0924212348449</v>
       </c>
       <c r="S15">
-        <v>0.02755094620250059</v>
+        <v>0.02535019639360915</v>
       </c>
       <c r="T15">
-        <v>0.02755094620250059</v>
+        <v>0.02831560060590084</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H16">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I16">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J16">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N16">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O16">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P16">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q16">
-        <v>23.56569291482337</v>
+        <v>25.29431751253266</v>
       </c>
       <c r="R16">
-        <v>23.56569291482337</v>
+        <v>151.765905075196</v>
       </c>
       <c r="S16">
-        <v>0.008960982980924495</v>
+        <v>0.008104205405328786</v>
       </c>
       <c r="T16">
-        <v>0.008960982980924495</v>
+        <v>0.006034810406000747</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H17">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I17">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J17">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N17">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O17">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P17">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q17">
-        <v>3.884031526210276</v>
+        <v>4.224934125876668</v>
       </c>
       <c r="R17">
-        <v>3.884031526210276</v>
+        <v>38.02440713289</v>
       </c>
       <c r="S17">
-        <v>0.001476924125657748</v>
+        <v>0.001353653205433309</v>
       </c>
       <c r="T17">
-        <v>0.001476924125657748</v>
+        <v>0.001512000259438227</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H18">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I18">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J18">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N18">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P18">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q18">
-        <v>46.96768267131511</v>
+        <v>49.64939339204733</v>
       </c>
       <c r="R18">
-        <v>46.96768267131511</v>
+        <v>446.844540528426</v>
       </c>
       <c r="S18">
-        <v>0.01785971694498217</v>
+        <v>0.01590748127913561</v>
       </c>
       <c r="T18">
-        <v>0.01785971694498217</v>
+        <v>0.0177682996830511</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H19">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I19">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J19">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N19">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O19">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P19">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q19">
-        <v>85.35707373956083</v>
+        <v>107.5899621280111</v>
       </c>
       <c r="R19">
-        <v>85.35707373956083</v>
+        <v>968.3096591520999</v>
       </c>
       <c r="S19">
-        <v>0.03245749182280961</v>
+        <v>0.03447142435074314</v>
       </c>
       <c r="T19">
-        <v>0.03245749182280961</v>
+        <v>0.03850380758699919</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H20">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I20">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J20">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N20">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O20">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P20">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q20">
-        <v>126.7859987793164</v>
+        <v>131.49151337077</v>
       </c>
       <c r="R20">
-        <v>126.7859987793164</v>
+        <v>1183.42362033693</v>
       </c>
       <c r="S20">
-        <v>0.04821106603516496</v>
+        <v>0.04212939261501177</v>
       </c>
       <c r="T20">
-        <v>0.04821106603516496</v>
+        <v>0.04705758632136672</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H21">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I21">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J21">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N21">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O21">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P21">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q21">
-        <v>41.23731972507902</v>
+        <v>42.03652772027067</v>
       </c>
       <c r="R21">
-        <v>41.23731972507902</v>
+        <v>252.219166321624</v>
       </c>
       <c r="S21">
-        <v>0.01568071524868823</v>
+        <v>0.01346834738684199</v>
       </c>
       <c r="T21">
-        <v>0.01568071524868823</v>
+        <v>0.0100292279004063</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H22">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I22">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J22">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N22">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O22">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P22">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q22">
-        <v>7.205101396982696</v>
+        <v>7.752039475240001</v>
       </c>
       <c r="R22">
-        <v>7.205101396982696</v>
+        <v>46.51223685144001</v>
       </c>
       <c r="S22">
-        <v>0.002739779018065049</v>
+        <v>0.002483724662127549</v>
       </c>
       <c r="T22">
-        <v>0.002739779018065049</v>
+        <v>0.001849509814594825</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H23">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I23">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J23">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N23">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O23">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P23">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q23">
-        <v>87.12774696716289</v>
+        <v>91.09823870141601</v>
       </c>
       <c r="R23">
-        <v>87.12774696716289</v>
+        <v>546.5894322084961</v>
       </c>
       <c r="S23">
-        <v>0.03313079995402692</v>
+        <v>0.02918753740377261</v>
       </c>
       <c r="T23">
-        <v>0.03313079995402692</v>
+        <v>0.02173454961223024</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H24">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I24">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J24">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N24">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O24">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P24">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q24">
-        <v>158.3422706775344</v>
+        <v>197.4093817102667</v>
       </c>
       <c r="R24">
-        <v>158.3422706775344</v>
+        <v>1184.4562902616</v>
       </c>
       <c r="S24">
-        <v>0.06021051016114207</v>
+        <v>0.06324923285739081</v>
       </c>
       <c r="T24">
-        <v>0.06021051016114207</v>
+        <v>0.04709864934671668</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H25">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I25">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J25">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N25">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O25">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P25">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q25">
-        <v>235.1953043527493</v>
+        <v>241.26468530388</v>
       </c>
       <c r="R25">
-        <v>235.1953043527493</v>
+        <v>1447.58811182328</v>
       </c>
       <c r="S25">
-        <v>0.08943429446849092</v>
+        <v>0.07730030928036996</v>
       </c>
       <c r="T25">
-        <v>0.08943429446849092</v>
+        <v>0.05756180741982653</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H26">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I26">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J26">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N26">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O26">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P26">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q26">
-        <v>76.49759481970366</v>
+        <v>77.12991790657601</v>
       </c>
       <c r="R26">
-        <v>76.49759481970366</v>
+        <v>308.519671626304</v>
       </c>
       <c r="S26">
-        <v>0.02908862674815859</v>
+        <v>0.02471213928983575</v>
       </c>
       <c r="T26">
-        <v>0.02908862674815859</v>
+        <v>0.01226795783851354</v>
       </c>
     </row>
   </sheetData>
